--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H2">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I2">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J2">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.207732624226432</v>
+        <v>0.219563</v>
       </c>
       <c r="N2">
-        <v>0.207732624226432</v>
+        <v>0.439126</v>
       </c>
       <c r="O2">
-        <v>0.03289330643136848</v>
+        <v>0.0321965312607291</v>
       </c>
       <c r="P2">
-        <v>0.03289330643136848</v>
+        <v>0.02201068841106374</v>
       </c>
       <c r="Q2">
-        <v>4.172497851185108</v>
+        <v>4.515051266122501</v>
       </c>
       <c r="R2">
-        <v>4.172497851185108</v>
+        <v>18.06020506449</v>
       </c>
       <c r="S2">
-        <v>0.0007942156693412818</v>
+        <v>0.0007381054577782789</v>
       </c>
       <c r="T2">
-        <v>0.0007942156693412818</v>
+        <v>0.0003537545274906611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H3">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I3">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J3">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.81939994789962</v>
+        <v>6.129647333333334</v>
       </c>
       <c r="N3">
-        <v>5.81939994789962</v>
+        <v>18.388942</v>
       </c>
       <c r="O3">
-        <v>0.9214696364895567</v>
+        <v>0.8988462627351212</v>
       </c>
       <c r="P3">
-        <v>0.9214696364895567</v>
+        <v>0.9217246816884522</v>
       </c>
       <c r="Q3">
-        <v>116.887917187869</v>
+        <v>126.048887805555</v>
       </c>
       <c r="R3">
-        <v>116.887917187869</v>
+        <v>756.2933268333301</v>
       </c>
       <c r="S3">
-        <v>0.02224907446289137</v>
+        <v>0.02060604997649607</v>
       </c>
       <c r="T3">
-        <v>0.02224907446289137</v>
+        <v>0.01481390646024871</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H4">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I4">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J4">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.28821382395194</v>
+        <v>0.07688066666666667</v>
       </c>
       <c r="N4">
-        <v>0.28821382395194</v>
+        <v>0.230642</v>
       </c>
       <c r="O4">
-        <v>0.04563705707907469</v>
+        <v>0.01127371546061507</v>
       </c>
       <c r="P4">
-        <v>0.04563705707907469</v>
+        <v>0.01156066640669094</v>
       </c>
       <c r="Q4">
-        <v>5.789035620184963</v>
+        <v>1.580959229805</v>
       </c>
       <c r="R4">
-        <v>5.789035620184963</v>
+        <v>9.485755378830001</v>
       </c>
       <c r="S4">
-        <v>0.001101916157636806</v>
+        <v>0.0002584499194504505</v>
       </c>
       <c r="T4">
-        <v>0.001101916157636806</v>
+        <v>0.0001858023704574566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>692.584010109969</v>
+        <v>20.5638075</v>
       </c>
       <c r="H5">
-        <v>692.584010109969</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I5">
-        <v>0.8325531468029204</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J5">
-        <v>0.8325531468029204</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.207732624226432</v>
+        <v>0.07063533333333333</v>
       </c>
       <c r="N5">
-        <v>0.207732624226432</v>
+        <v>0.211906</v>
       </c>
       <c r="O5">
-        <v>0.03289330643136848</v>
+        <v>0.01035790510139999</v>
       </c>
       <c r="P5">
-        <v>0.03289330643136848</v>
+        <v>0.01062154583977007</v>
       </c>
       <c r="Q5">
-        <v>143.8722939174096</v>
+        <v>1.452531397365</v>
       </c>
       <c r="R5">
-        <v>143.8722939174096</v>
+        <v>8.71518838419</v>
       </c>
       <c r="S5">
-        <v>0.02738542577818857</v>
+        <v>0.0002374549675734132</v>
       </c>
       <c r="T5">
-        <v>0.02738542577818857</v>
+        <v>0.0001707088783229324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>692.584010109969</v>
+        <v>20.5638075</v>
       </c>
       <c r="H6">
-        <v>692.584010109969</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I6">
-        <v>0.8325531468029204</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J6">
-        <v>0.8325531468029204</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>5.81939994789962</v>
+        <v>0.034494</v>
       </c>
       <c r="N6">
-        <v>5.81939994789962</v>
+        <v>0.103482</v>
       </c>
       <c r="O6">
-        <v>0.9214696364895567</v>
+        <v>0.005058170772432466</v>
       </c>
       <c r="P6">
-        <v>0.9214696364895567</v>
+        <v>0.005186916871589699</v>
       </c>
       <c r="Q6">
-        <v>4030.423352350063</v>
+        <v>0.7093279759050002</v>
       </c>
       <c r="R6">
-        <v>4030.423352350063</v>
+        <v>4.255967855430001</v>
       </c>
       <c r="S6">
-        <v>0.7671724455427236</v>
+        <v>0.0001159585616001055</v>
       </c>
       <c r="T6">
-        <v>0.7671724455427236</v>
+        <v>8.336383182455285E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>692.584010109969</v>
+        <v>20.5638075</v>
       </c>
       <c r="H7">
-        <v>692.584010109969</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I7">
-        <v>0.8325531468029204</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J7">
-        <v>0.8325531468029204</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.28821382395194</v>
+        <v>0.288241</v>
       </c>
       <c r="N7">
-        <v>0.28821382395194</v>
+        <v>0.5764819999999999</v>
       </c>
       <c r="O7">
-        <v>0.04563705707907469</v>
+        <v>0.04226741466970216</v>
       </c>
       <c r="P7">
-        <v>0.04563705707907469</v>
+        <v>0.02889550078243339</v>
       </c>
       <c r="Q7">
-        <v>199.6122859617632</v>
+        <v>5.9273324376075</v>
       </c>
       <c r="R7">
-        <v>199.6122859617632</v>
+        <v>23.70932975043</v>
       </c>
       <c r="S7">
-        <v>0.03799527548200813</v>
+        <v>0.0009689804532433464</v>
       </c>
       <c r="T7">
-        <v>0.03799527548200813</v>
+        <v>0.0004644068388500597</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.329712846190816</v>
+        <v>742.921651</v>
       </c>
       <c r="H8">
-        <v>0.329712846190816</v>
+        <v>2228.764953</v>
       </c>
       <c r="I8">
-        <v>0.0003963468166034114</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J8">
-        <v>0.0003963468166034114</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.207732624226432</v>
+        <v>0.219563</v>
       </c>
       <c r="N8">
-        <v>0.207732624226432</v>
+        <v>0.439126</v>
       </c>
       <c r="O8">
-        <v>0.03289330643136848</v>
+        <v>0.0321965312607291</v>
       </c>
       <c r="P8">
-        <v>0.03289330643136848</v>
+        <v>0.02201068841106374</v>
       </c>
       <c r="Q8">
-        <v>0.06849211478038414</v>
+        <v>163.118106458513</v>
       </c>
       <c r="R8">
-        <v>0.06849211478038414</v>
+        <v>978.708638751078</v>
       </c>
       <c r="S8">
-        <v>1.303715729163342E-05</v>
+        <v>0.02666600167817899</v>
       </c>
       <c r="T8">
-        <v>1.303715729163342E-05</v>
+        <v>0.01917046959412211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,181 +971,181 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.329712846190816</v>
+        <v>742.921651</v>
       </c>
       <c r="H9">
-        <v>0.329712846190816</v>
+        <v>2228.764953</v>
       </c>
       <c r="I9">
-        <v>0.0003963468166034114</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J9">
-        <v>0.0003963468166034114</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.81939994789962</v>
+        <v>6.129647333333334</v>
       </c>
       <c r="N9">
-        <v>5.81939994789962</v>
+        <v>18.388942</v>
       </c>
       <c r="O9">
-        <v>0.9214696364895567</v>
+        <v>0.8988462627351212</v>
       </c>
       <c r="P9">
-        <v>0.9214696364895567</v>
+        <v>0.9217246816884522</v>
       </c>
       <c r="Q9">
-        <v>1.91873091994467</v>
+        <v>4553.847716927748</v>
       </c>
       <c r="R9">
-        <v>1.91873091994467</v>
+        <v>40984.62945234973</v>
       </c>
       <c r="S9">
-        <v>0.0003652215570193385</v>
+        <v>0.7444477716068375</v>
       </c>
       <c r="T9">
-        <v>0.0003652215570193385</v>
+        <v>0.8027870212173158</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.329712846190816</v>
+        <v>742.921651</v>
       </c>
       <c r="H10">
-        <v>0.329712846190816</v>
+        <v>2228.764953</v>
       </c>
       <c r="I10">
-        <v>0.0003963468166034114</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J10">
-        <v>0.0003963468166034114</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.28821382395194</v>
+        <v>0.07688066666666667</v>
       </c>
       <c r="N10">
-        <v>0.28821382395194</v>
+        <v>0.230642</v>
       </c>
       <c r="O10">
-        <v>0.04563705707907469</v>
+        <v>0.01127371546061507</v>
       </c>
       <c r="P10">
-        <v>0.04563705707907469</v>
+        <v>0.01156066640669094</v>
       </c>
       <c r="Q10">
-        <v>0.0950278002067329</v>
+        <v>57.11631180998067</v>
       </c>
       <c r="R10">
-        <v>0.0950278002067329</v>
+        <v>514.046806289826</v>
       </c>
       <c r="S10">
-        <v>1.808810229243944E-05</v>
+        <v>0.009337183343062596</v>
       </c>
       <c r="T10">
-        <v>1.808810229243944E-05</v>
+        <v>0.01006889924105499</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.04896403377959</v>
+        <v>742.921651</v>
       </c>
       <c r="H11">
-        <v>1.04896403377959</v>
+        <v>2228.764953</v>
       </c>
       <c r="I11">
-        <v>0.001260956496913084</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J11">
-        <v>0.001260956496913084</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.207732624226432</v>
+        <v>0.07063533333333333</v>
       </c>
       <c r="N11">
-        <v>0.207732624226432</v>
+        <v>0.211906</v>
       </c>
       <c r="O11">
-        <v>0.03289330643136848</v>
+        <v>0.01035790510139999</v>
       </c>
       <c r="P11">
-        <v>0.03289330643136848</v>
+        <v>0.01062154583977007</v>
       </c>
       <c r="Q11">
-        <v>0.2179040514561779</v>
+        <v>52.47651845893533</v>
       </c>
       <c r="R11">
-        <v>0.2179040514561779</v>
+        <v>472.2886661304179</v>
       </c>
       <c r="S11">
-        <v>4.147702844958702E-05</v>
+        <v>0.008578685467065939</v>
       </c>
       <c r="T11">
-        <v>4.147702844958702E-05</v>
+        <v>0.009250961067693646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.04896403377959</v>
+        <v>742.921651</v>
       </c>
       <c r="H12">
-        <v>1.04896403377959</v>
+        <v>2228.764953</v>
       </c>
       <c r="I12">
-        <v>0.001260956496913084</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J12">
-        <v>0.001260956496913084</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>5.81939994789962</v>
+        <v>0.034494</v>
       </c>
       <c r="N12">
-        <v>5.81939994789962</v>
+        <v>0.103482</v>
       </c>
       <c r="O12">
-        <v>0.9214696364895567</v>
+        <v>0.005058170772432466</v>
       </c>
       <c r="P12">
-        <v>0.9214696364895567</v>
+        <v>0.005186916871589699</v>
       </c>
       <c r="Q12">
-        <v>6.104341243525521</v>
+        <v>25.626339429594</v>
       </c>
       <c r="R12">
-        <v>6.104341243525521</v>
+        <v>230.637054866346</v>
       </c>
       <c r="S12">
-        <v>0.001161933124839644</v>
+        <v>0.00418930813428085</v>
       </c>
       <c r="T12">
-        <v>0.001161933124839644</v>
+        <v>0.004517606642601313</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.04896403377959</v>
+        <v>742.921651</v>
       </c>
       <c r="H13">
-        <v>1.04896403377959</v>
+        <v>2228.764953</v>
       </c>
       <c r="I13">
-        <v>0.001260956496913084</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J13">
-        <v>0.001260956496913084</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.28821382395194</v>
+        <v>0.288241</v>
       </c>
       <c r="N13">
-        <v>0.28821382395194</v>
+        <v>0.5764819999999999</v>
       </c>
       <c r="O13">
-        <v>0.04563705707907469</v>
+        <v>0.04226741466970216</v>
       </c>
       <c r="P13">
-        <v>0.04563705707907469</v>
+        <v>0.02889550078243339</v>
       </c>
       <c r="Q13">
-        <v>0.3023259353636676</v>
+        <v>214.140479605891</v>
       </c>
       <c r="R13">
-        <v>0.3023259353636676</v>
+        <v>1284.842877635346</v>
       </c>
       <c r="S13">
-        <v>5.75463436238525E-05</v>
+        <v>0.03500696834038517</v>
       </c>
       <c r="T13">
-        <v>5.75463436238525E-05</v>
+        <v>0.02516687841885632</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.3985232690641</v>
+        <v>0.631401</v>
       </c>
       <c r="H14">
-        <v>17.3985232690641</v>
+        <v>1.894203</v>
       </c>
       <c r="I14">
-        <v>0.02091471227451985</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J14">
-        <v>0.02091471227451985</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.207732624226432</v>
+        <v>0.219563</v>
       </c>
       <c r="N14">
-        <v>0.207732624226432</v>
+        <v>0.439126</v>
       </c>
       <c r="O14">
-        <v>0.03289330643136848</v>
+        <v>0.0321965312607291</v>
       </c>
       <c r="P14">
-        <v>0.03289330643136848</v>
+        <v>0.02201068841106374</v>
       </c>
       <c r="Q14">
-        <v>3.614240896347326</v>
+        <v>0.138632297763</v>
       </c>
       <c r="R14">
-        <v>3.614240896347326</v>
+        <v>0.831793786578</v>
       </c>
       <c r="S14">
-        <v>0.0006879540397696852</v>
+        <v>2.266314368808709E-05</v>
       </c>
       <c r="T14">
-        <v>0.0006879540397696852</v>
+        <v>1.629277280572658E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.3985232690641</v>
+        <v>0.631401</v>
       </c>
       <c r="H15">
-        <v>17.3985232690641</v>
+        <v>1.894203</v>
       </c>
       <c r="I15">
-        <v>0.02091471227451985</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J15">
-        <v>0.02091471227451985</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.81939994789962</v>
+        <v>6.129647333333334</v>
       </c>
       <c r="N15">
-        <v>5.81939994789962</v>
+        <v>18.388942</v>
       </c>
       <c r="O15">
-        <v>0.9214696364895567</v>
+        <v>0.8988462627351212</v>
       </c>
       <c r="P15">
-        <v>0.9214696364895567</v>
+        <v>0.9217246816884522</v>
       </c>
       <c r="Q15">
-        <v>101.2489654055219</v>
+        <v>3.870265455914</v>
       </c>
       <c r="R15">
-        <v>101.2489654055219</v>
+        <v>34.832389103226</v>
       </c>
       <c r="S15">
-        <v>0.01927227231688548</v>
+        <v>0.0006326980332416356</v>
       </c>
       <c r="T15">
-        <v>0.01927227231688548</v>
+        <v>0.0006822799245402991</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.3985232690641</v>
+        <v>0.631401</v>
       </c>
       <c r="H16">
-        <v>17.3985232690641</v>
+        <v>1.894203</v>
       </c>
       <c r="I16">
-        <v>0.02091471227451985</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J16">
-        <v>0.02091471227451985</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.28821382395194</v>
+        <v>0.07688066666666667</v>
       </c>
       <c r="N16">
-        <v>0.28821382395194</v>
+        <v>0.230642</v>
       </c>
       <c r="O16">
-        <v>0.04563705707907469</v>
+        <v>0.01127371546061507</v>
       </c>
       <c r="P16">
-        <v>0.04563705707907469</v>
+        <v>0.01156066640669094</v>
       </c>
       <c r="Q16">
-        <v>5.014494922493772</v>
+        <v>0.048542529814</v>
       </c>
       <c r="R16">
-        <v>5.014494922493772</v>
+        <v>0.436882768326</v>
       </c>
       <c r="S16">
-        <v>0.0009544859178646866</v>
+        <v>7.935570180324528E-06</v>
       </c>
       <c r="T16">
-        <v>0.0009544859178646866</v>
+        <v>8.557447533187265E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.432521958775</v>
+        <v>0.631401</v>
       </c>
       <c r="H17">
-        <v>100.432521958775</v>
+        <v>1.894203</v>
       </c>
       <c r="I17">
-        <v>0.1207296313191738</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J17">
-        <v>0.1207296313191738</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.207732624226432</v>
+        <v>0.07063533333333333</v>
       </c>
       <c r="N17">
-        <v>0.207732624226432</v>
+        <v>0.211906</v>
       </c>
       <c r="O17">
-        <v>0.03289330643136848</v>
+        <v>0.01035790510139999</v>
       </c>
       <c r="P17">
-        <v>0.03289330643136848</v>
+        <v>0.01062154583977007</v>
       </c>
       <c r="Q17">
-        <v>20.86311134417508</v>
+        <v>0.04459922010199999</v>
       </c>
       <c r="R17">
-        <v>20.86311134417508</v>
+        <v>0.401392980918</v>
       </c>
       <c r="S17">
-        <v>0.003971196758327727</v>
+        <v>7.290931116760388E-06</v>
       </c>
       <c r="T17">
-        <v>0.003971196758327727</v>
+        <v>7.86229080985935E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>100.432521958775</v>
+        <v>0.631401</v>
       </c>
       <c r="H18">
-        <v>100.432521958775</v>
+        <v>1.894203</v>
       </c>
       <c r="I18">
-        <v>0.1207296313191738</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J18">
-        <v>0.1207296313191738</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>5.81939994789962</v>
+        <v>0.034494</v>
       </c>
       <c r="N18">
-        <v>5.81939994789962</v>
+        <v>0.103482</v>
       </c>
       <c r="O18">
-        <v>0.9214696364895567</v>
+        <v>0.005058170772432466</v>
       </c>
       <c r="P18">
-        <v>0.9214696364895567</v>
+        <v>0.005186916871589699</v>
       </c>
       <c r="Q18">
-        <v>584.4570130543226</v>
+        <v>0.021779546094</v>
       </c>
       <c r="R18">
-        <v>584.4570130543226</v>
+        <v>0.196015914846</v>
       </c>
       <c r="S18">
-        <v>0.1112486894851973</v>
+        <v>3.560447244649036E-06</v>
       </c>
       <c r="T18">
-        <v>0.1112486894851973</v>
+        <v>3.83946456252237E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,52 +1591,1168 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>100.432521958775</v>
+        <v>0.631401</v>
       </c>
       <c r="H19">
-        <v>100.432521958775</v>
+        <v>1.894203</v>
       </c>
       <c r="I19">
-        <v>0.1207296313191738</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J19">
-        <v>0.1207296313191738</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.28821382395194</v>
+        <v>0.288241</v>
       </c>
       <c r="N19">
-        <v>0.28821382395194</v>
+        <v>0.5764819999999999</v>
       </c>
       <c r="O19">
-        <v>0.04563705707907469</v>
+        <v>0.04226741466970216</v>
       </c>
       <c r="P19">
-        <v>0.04563705707907469</v>
+        <v>0.02889550078243339</v>
       </c>
       <c r="Q19">
-        <v>28.94604120287573</v>
+        <v>0.181995655641</v>
       </c>
       <c r="R19">
-        <v>28.94604120287573</v>
+        <v>1.091973933846</v>
       </c>
       <c r="S19">
-        <v>0.005509745075648781</v>
+        <v>2.975204018800031E-05</v>
       </c>
       <c r="T19">
-        <v>0.005509745075648781</v>
+        <v>2.138905519734853E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.072888333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.218665</v>
+      </c>
+      <c r="I20">
+        <v>0.001196080265263172</v>
+      </c>
+      <c r="J20">
+        <v>0.001257797227419697</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.219563</v>
+      </c>
+      <c r="N20">
+        <v>0.439126</v>
+      </c>
+      <c r="O20">
+        <v>0.0321965312607291</v>
+      </c>
+      <c r="P20">
+        <v>0.02201068841106374</v>
+      </c>
+      <c r="Q20">
+        <v>0.2355665811316667</v>
+      </c>
+      <c r="R20">
+        <v>1.41339948679</v>
+      </c>
+      <c r="S20">
+        <v>3.850963565088687E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.768498285703484E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.072888333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.218665</v>
+      </c>
+      <c r="I21">
+        <v>0.001196080265263172</v>
+      </c>
+      <c r="J21">
+        <v>0.001257797227419697</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.129647333333334</v>
+      </c>
+      <c r="N21">
+        <v>18.388942</v>
+      </c>
+      <c r="O21">
+        <v>0.8988462627351212</v>
+      </c>
+      <c r="P21">
+        <v>0.9217246816884522</v>
+      </c>
+      <c r="Q21">
+        <v>6.576427111381112</v>
+      </c>
+      <c r="R21">
+        <v>59.18784400243</v>
+      </c>
+      <c r="S21">
+        <v>0.001075092276363034</v>
+      </c>
+      <c r="T21">
+        <v>0.001159342749072038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.072888333333333</v>
+      </c>
+      <c r="H22">
+        <v>3.218665</v>
+      </c>
+      <c r="I22">
+        <v>0.001196080265263172</v>
+      </c>
+      <c r="J22">
+        <v>0.001257797227419697</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.07688066666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.230642</v>
+      </c>
+      <c r="O22">
+        <v>0.01127371546061507</v>
+      </c>
+      <c r="P22">
+        <v>0.01156066640669094</v>
+      </c>
+      <c r="Q22">
+        <v>0.08248437032555557</v>
+      </c>
+      <c r="R22">
+        <v>0.7423593329300001</v>
+      </c>
+      <c r="S22">
+        <v>1.348426857863399E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.454097415345989E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.072888333333333</v>
+      </c>
+      <c r="H23">
+        <v>3.218665</v>
+      </c>
+      <c r="I23">
+        <v>0.001196080265263172</v>
+      </c>
+      <c r="J23">
+        <v>0.001257797227419697</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.07063533333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.211906</v>
+      </c>
+      <c r="O23">
+        <v>0.01035790510139999</v>
+      </c>
+      <c r="P23">
+        <v>0.01062154583977007</v>
+      </c>
+      <c r="Q23">
+        <v>0.07578382505444445</v>
+      </c>
+      <c r="R23">
+        <v>0.6820544254899999</v>
+      </c>
+      <c r="S23">
+        <v>1.238888588125326E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.335975090817402E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.072888333333333</v>
+      </c>
+      <c r="H24">
+        <v>3.218665</v>
+      </c>
+      <c r="I24">
+        <v>0.001196080265263172</v>
+      </c>
+      <c r="J24">
+        <v>0.001257797227419697</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.034494</v>
+      </c>
+      <c r="N24">
+        <v>0.103482</v>
+      </c>
+      <c r="O24">
+        <v>0.005058170772432466</v>
+      </c>
+      <c r="P24">
+        <v>0.005186916871589699</v>
+      </c>
+      <c r="Q24">
+        <v>0.03700821017000001</v>
+      </c>
+      <c r="R24">
+        <v>0.33307389153</v>
+      </c>
+      <c r="S24">
+        <v>6.049978239237447E-06</v>
+      </c>
+      <c r="T24">
+        <v>6.524089659941973E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.072888333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.218665</v>
+      </c>
+      <c r="I25">
+        <v>0.001196080265263172</v>
+      </c>
+      <c r="J25">
+        <v>0.001257797227419697</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.288241</v>
+      </c>
+      <c r="N25">
+        <v>0.5764819999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.04226741466970216</v>
+      </c>
+      <c r="P25">
+        <v>0.02889550078243339</v>
+      </c>
+      <c r="Q25">
+        <v>0.3092504060883333</v>
+      </c>
+      <c r="R25">
+        <v>1.85550243653</v>
+      </c>
+      <c r="S25">
+        <v>5.055522055012584E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.634468076904842E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>20.33651533333333</v>
+      </c>
+      <c r="H26">
+        <v>61.009546</v>
+      </c>
+      <c r="I26">
+        <v>0.02267160886990901</v>
+      </c>
+      <c r="J26">
+        <v>0.02384144911164551</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.219563</v>
+      </c>
+      <c r="N26">
+        <v>0.439126</v>
+      </c>
+      <c r="O26">
+        <v>0.0321965312607291</v>
+      </c>
+      <c r="P26">
+        <v>0.02201068841106374</v>
+      </c>
+      <c r="Q26">
+        <v>4.465146316132667</v>
+      </c>
+      <c r="R26">
+        <v>26.790877896796</v>
+      </c>
+      <c r="S26">
+        <v>0.0007299471637110486</v>
+      </c>
+      <c r="T26">
+        <v>0.0005247667076646616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>20.33651533333333</v>
+      </c>
+      <c r="H27">
+        <v>61.009546</v>
+      </c>
+      <c r="I27">
+        <v>0.02267160886990901</v>
+      </c>
+      <c r="J27">
+        <v>0.02384144911164551</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>6.129647333333334</v>
+      </c>
+      <c r="N27">
+        <v>18.388942</v>
+      </c>
+      <c r="O27">
+        <v>0.8988462627351212</v>
+      </c>
+      <c r="P27">
+        <v>0.9217246816884522</v>
+      </c>
+      <c r="Q27">
+        <v>124.6556669822591</v>
+      </c>
+      <c r="R27">
+        <v>1121.901002840332</v>
+      </c>
+      <c r="S27">
+        <v>0.02037829090291014</v>
+      </c>
+      <c r="T27">
+        <v>0.02197525209342288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>20.33651533333333</v>
+      </c>
+      <c r="H28">
+        <v>61.009546</v>
+      </c>
+      <c r="I28">
+        <v>0.02267160886990901</v>
+      </c>
+      <c r="J28">
+        <v>0.02384144911164551</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.07688066666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.230642</v>
+      </c>
+      <c r="O28">
+        <v>0.01127371546061507</v>
+      </c>
+      <c r="P28">
+        <v>0.01156066640669094</v>
+      </c>
+      <c r="Q28">
+        <v>1.563484856503556</v>
+      </c>
+      <c r="R28">
+        <v>14.071363708532</v>
+      </c>
+      <c r="S28">
+        <v>0.000255593267433711</v>
+      </c>
+      <c r="T28">
+        <v>0.0002756230398318316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>20.33651533333333</v>
+      </c>
+      <c r="H29">
+        <v>61.009546</v>
+      </c>
+      <c r="I29">
+        <v>0.02267160886990901</v>
+      </c>
+      <c r="J29">
+        <v>0.02384144911164551</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.07063533333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.211906</v>
+      </c>
+      <c r="O29">
+        <v>0.01035790510139999</v>
+      </c>
+      <c r="P29">
+        <v>0.01062154583977007</v>
+      </c>
+      <c r="Q29">
+        <v>1.436476539408444</v>
+      </c>
+      <c r="R29">
+        <v>12.928288854676</v>
+      </c>
+      <c r="S29">
+        <v>0.0002348303731705758</v>
+      </c>
+      <c r="T29">
+        <v>0.0002532330446258882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>20.33651533333333</v>
+      </c>
+      <c r="H30">
+        <v>61.009546</v>
+      </c>
+      <c r="I30">
+        <v>0.02267160886990901</v>
+      </c>
+      <c r="J30">
+        <v>0.02384144911164551</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.034494</v>
+      </c>
+      <c r="N30">
+        <v>0.103482</v>
+      </c>
+      <c r="O30">
+        <v>0.005058170772432466</v>
+      </c>
+      <c r="P30">
+        <v>0.005186916871589699</v>
+      </c>
+      <c r="Q30">
+        <v>0.7014877599080002</v>
+      </c>
+      <c r="R30">
+        <v>6.313389839172</v>
+      </c>
+      <c r="S30">
+        <v>0.0001146768693497944</v>
+      </c>
+      <c r="T30">
+        <v>0.0001236636146403413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>20.33651533333333</v>
+      </c>
+      <c r="H31">
+        <v>61.009546</v>
+      </c>
+      <c r="I31">
+        <v>0.02267160886990901</v>
+      </c>
+      <c r="J31">
+        <v>0.02384144911164551</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.288241</v>
+      </c>
+      <c r="N31">
+        <v>0.5764819999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.04226741466970216</v>
+      </c>
+      <c r="P31">
+        <v>0.02889550078243339</v>
+      </c>
+      <c r="Q31">
+        <v>5.861817516195333</v>
+      </c>
+      <c r="R31">
+        <v>35.170905097172</v>
+      </c>
+      <c r="S31">
+        <v>0.0009582702933337417</v>
+      </c>
+      <c r="T31">
+        <v>0.0006889106114598986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>111.4773615</v>
+      </c>
+      <c r="H32">
+        <v>222.954723</v>
+      </c>
+      <c r="I32">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J32">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.219563</v>
+      </c>
+      <c r="N32">
+        <v>0.439126</v>
+      </c>
+      <c r="O32">
+        <v>0.0321965312607291</v>
+      </c>
+      <c r="P32">
+        <v>0.02201068841106374</v>
+      </c>
+      <c r="Q32">
+        <v>24.4763039230245</v>
+      </c>
+      <c r="R32">
+        <v>97.90521569209801</v>
+      </c>
+      <c r="S32">
+        <v>0.004001304181721803</v>
+      </c>
+      <c r="T32">
+        <v>0.001917719826123548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>111.4773615</v>
+      </c>
+      <c r="H33">
+        <v>222.954723</v>
+      </c>
+      <c r="I33">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J33">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>6.129647333333334</v>
+      </c>
+      <c r="N33">
+        <v>18.388942</v>
+      </c>
+      <c r="O33">
+        <v>0.8988462627351212</v>
+      </c>
+      <c r="P33">
+        <v>0.9217246816884522</v>
+      </c>
+      <c r="Q33">
+        <v>683.316911645511</v>
+      </c>
+      <c r="R33">
+        <v>4099.901469873066</v>
+      </c>
+      <c r="S33">
+        <v>0.1117063599392729</v>
+      </c>
+      <c r="T33">
+        <v>0.08030687924385259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>111.4773615</v>
+      </c>
+      <c r="H34">
+        <v>222.954723</v>
+      </c>
+      <c r="I34">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J34">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.07688066666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.230642</v>
+      </c>
+      <c r="O34">
+        <v>0.01127371546061507</v>
+      </c>
+      <c r="P34">
+        <v>0.01156066640669094</v>
+      </c>
+      <c r="Q34">
+        <v>8.570453870361</v>
+      </c>
+      <c r="R34">
+        <v>51.42272322216601</v>
+      </c>
+      <c r="S34">
+        <v>0.001401069091909353</v>
+      </c>
+      <c r="T34">
+        <v>0.001007243333660014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>111.4773615</v>
+      </c>
+      <c r="H35">
+        <v>222.954723</v>
+      </c>
+      <c r="I35">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J35">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.07063533333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.211906</v>
+      </c>
+      <c r="O35">
+        <v>0.01035790510139999</v>
+      </c>
+      <c r="P35">
+        <v>0.01062154583977007</v>
+      </c>
+      <c r="Q35">
+        <v>7.874240588673</v>
+      </c>
+      <c r="R35">
+        <v>47.245443532038</v>
+      </c>
+      <c r="S35">
+        <v>0.001287254476592049</v>
+      </c>
+      <c r="T35">
+        <v>0.000925420807409574</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>111.4773615</v>
+      </c>
+      <c r="H36">
+        <v>222.954723</v>
+      </c>
+      <c r="I36">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J36">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.034494</v>
+      </c>
+      <c r="N36">
+        <v>0.103482</v>
+      </c>
+      <c r="O36">
+        <v>0.005058170772432466</v>
+      </c>
+      <c r="P36">
+        <v>0.005186916871589699</v>
+      </c>
+      <c r="Q36">
+        <v>3.845300107581</v>
+      </c>
+      <c r="R36">
+        <v>23.071800645486</v>
+      </c>
+      <c r="S36">
+        <v>0.0006286167817178299</v>
+      </c>
+      <c r="T36">
+        <v>0.0004519192283010276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>111.4773615</v>
+      </c>
+      <c r="H37">
+        <v>222.954723</v>
+      </c>
+      <c r="I37">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J37">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.288241</v>
+      </c>
+      <c r="N37">
+        <v>0.5764819999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.04226741466970216</v>
+      </c>
+      <c r="P37">
+        <v>0.02889550078243339</v>
+      </c>
+      <c r="Q37">
+        <v>32.1323461561215</v>
+      </c>
+      <c r="R37">
+        <v>128.529384624486</v>
+      </c>
+      <c r="S37">
+        <v>0.005252888322001768</v>
+      </c>
+      <c r="T37">
+        <v>0.002517571177300719</v>
       </c>
     </row>
   </sheetData>
